--- a/biology/Mycologie/Microsporum/Microsporum.xlsx
+++ b/biology/Mycologie/Microsporum/Microsporum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Microsporum est un genre de champignons filamenteux (c'est-à-dire formés d'hyphes). 
 Certaines espèces de ce genre sont des parasites fongiques de tissus riches en kératine (peau, ongles, poils...) de l'animal et/ou de l'Homme. C'est par exemple un Microsporum qui cause la teigne la plus courante (ex : tinea corporis, et d'autres Microsporum dont à l'origine de plusieurs dermatophytoses (infections fongiques de la peau) fréquentes chez l'homme ou certains animaux.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Microsporum forment à la fois des macro-conidies (grandes structures reproductives asexuées) et des micro-conidies (structures reproductives asexuées plus petites) sur des conidiophores courts. 
 Les macroconidies sont hyalines, multiseptées, de forme variable, fusiformes, fusiformes à obovales, mesurant environ 7-20 x 30-160 µm, avec des parois cellulaires étroites ou épaisses à verruqueuses. Leur forme, leur taille et les caractéristiques des parois cellulaires sont des caractéristiques importantes pour l'identification des espèces.
@@ -546,10 +560,12 @@
           <t>Enjeux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs présentent des enjeux en matière de santé publique (et peut-être vétérinaire).
-Par exemple Microsporum audouinii est un dermatophyte (anthropophile qui cible l'Homme), hautement contagieux. Il fut en Europe aux XVIIIe et XIXe siècles responsable de nombreuses infections infantile du cuir chevelu à caractère épidémique. Cette maladie, alors considérée comme maladie orpheline, a reculé avec les progrès de l'hygiène et on l'a cru disparue en Europe, mais elle réapparait parfois à la suite de contaminations accidentelles (vacances, immigration). Le contact avec le sol peut entraîner une infection par le dermatophyte géophile Microsporum gypseum[1]
+Par exemple Microsporum audouinii est un dermatophyte (anthropophile qui cible l'Homme), hautement contagieux. Il fut en Europe aux XVIIIe et XIXe siècles responsable de nombreuses infections infantile du cuir chevelu à caractère épidémique. Cette maladie, alors considérée comme maladie orpheline, a reculé avec les progrès de l'hygiène et on l'a cru disparue en Europe, mais elle réapparait parfois à la suite de contaminations accidentelles (vacances, immigration). Le contact avec le sol peut entraîner une infection par le dermatophyte géophile Microsporum gypseum
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dix-sept espèces de Microsporum ont été décrites et d'autres sont peut-être encore à découvrir.
 Microsporum amazonicum
@@ -600,7 +618,7 @@
 Microsporum praecox
 Microsporum ripariae
 Microsporum rivalieri
-Selon NCBI  (7 janvier 2018)[2] :
+Selon NCBI  (7 janvier 2018) :
 Microsporum appendiculatum
 Microsporum audouinii
 Microsporum canis
